--- a/data/NR.xlsx
+++ b/data/NR.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -371,6 +371,21 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Corequisites</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Concurrent</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Recommended</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Terms Typically Offered</t>
         </is>
       </c>
@@ -393,6 +408,21 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -415,6 +445,21 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -437,7 +482,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FRecommended: NR 140.</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NR 140.</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -459,6 +519,21 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -481,6 +556,21 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -503,6 +593,21 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>SP</t>
         </is>
       </c>
@@ -525,7 +630,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>F, W, SPRecommended: BOT 121.</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>BOT 121.</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>F, W, SP</t>
         </is>
       </c>
     </row>
@@ -547,6 +667,21 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -569,6 +704,21 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -586,10 +736,25 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NR 215.</t>
+          <t>NR 215.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -613,7 +778,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SPRecommended: NR 141 and NR 215.</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NR 141 and NR 215.</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>SP</t>
         </is>
       </c>
     </row>
@@ -635,6 +815,21 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -657,6 +852,21 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -679,6 +889,21 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -701,6 +926,21 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -723,6 +963,21 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>SP</t>
         </is>
       </c>
@@ -745,6 +1000,21 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -767,6 +1037,21 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -784,10 +1069,25 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>BIO 263, NR 305, or NR 306.</t>
+          <t>BIO 263, NR 305, or NR 306.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>W, SP</t>
         </is>
@@ -806,12 +1106,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>BRAE 237 or BRAE 239; NR 215; and STAT 217 or STAT 218. Recommended: MATH 161 or MATH 221.</t>
+          <t>BRAE 237 or BRAE 239; NR 215; and STAT 217 or STAT 218.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>MATH 161 or MATH 221.</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W, SP </t>
         </is>
       </c>
     </row>
@@ -833,6 +1148,21 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -850,12 +1180,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NR/LA 218 and SS 120. Recommended: NR 305 or NR 306.</t>
+          <t>NR/LA 218 and SS 120.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NR 305 or NR 306.</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP </t>
         </is>
       </c>
     </row>
@@ -877,6 +1222,21 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -899,6 +1259,21 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>W, SP</t>
         </is>
       </c>
@@ -921,6 +1296,21 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -938,12 +1328,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>MATH 161 or MATH 221 or equivalent. Recommended: GE Area D2 (ECON 201 recommended), AGB 212.</t>
+          <t>MATH 161 or MATH 221 or equivalent.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>F, W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>GE Area D2 (ECON 201 recommended), AGB 212.</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W </t>
         </is>
       </c>
     </row>
@@ -965,6 +1370,21 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -982,12 +1402,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>NR 141 or NR 142. Recommended: PSY 201 or PSY 202.</t>
+          <t>NR 141 or NR 142.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>F, W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>PSY 201 or PSY 202.</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W </t>
         </is>
       </c>
     </row>
@@ -1009,6 +1444,21 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -1026,10 +1476,25 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NR 204.</t>
+          <t>NR 204.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1053,7 +1518,22 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>F, W, SPPrerequisites: Junior standing; completion of GE Area A with grades of C- or better; completion of one course in GE Area B1 with a grade of C- or better; and two lower-division courses in GE Area D.</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>F, W, Junior standing; completion of GE Area A with grades of C- or better; completion of one course in GE Area B1 with a grade of C- or better; and two lower-division courses in GE Area D.</t>
         </is>
       </c>
     </row>
@@ -1070,10 +1550,25 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NR 208.</t>
+          <t>NR 208.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1097,6 +1592,21 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1114,10 +1624,25 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>BRAE 239; GEOG 328 or BRAE 345; NR 218 or GEOG 318; and STAT 217 or STAT 218.</t>
+          <t>BRAE 239; GEOG 328 or BRAE 345; NR 218 or GEOG 318; and STAT 217 or STAT 218.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
         <is>
           <t>F, SP</t>
         </is>
@@ -1136,12 +1661,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Junior standing; completion of GE Area A with grades of C- or better; completion of one course in GE Area B1 with a grade of C- or better; and one lower-division course in GE Area C. Recommended: Lower-division Ethnic Studies (ES) course and an introductory natural resources course.</t>
+          <t>Junior standing; completion of GE Area A with grades of C- or better; completion of one course in GE Area B1 with a grade of C- or better; and one lower-division course in GE Area C.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Lower-division Ethnic Studies (ES) course and an introductory natural resources course.</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP </t>
         </is>
       </c>
     </row>
@@ -1163,6 +1703,21 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1180,12 +1735,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>NR 208 and NR 315. Corequisite: NR 260; and NR 305 or NR 306.</t>
+          <t>NR 208 and NR 315.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>F, SP</t>
+          <t>NR 260; and NR 305 or NR 306.</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, SP </t>
         </is>
       </c>
     </row>
@@ -1207,6 +1777,21 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1224,10 +1809,25 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CRP/NR 351.</t>
+          <t>CRP/NR 351.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1246,10 +1846,25 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>NR 208; and NR 305 or NR 306; or consent of instructor.</t>
+          <t>NR 208; and NR 305 or NR 306; or consent of instructor.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1273,6 +1888,21 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>F, W</t>
         </is>
       </c>
@@ -1290,10 +1920,25 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ES 241; and NR 141 or NR 142; and junior standing required.</t>
+          <t>ES 241; and NR 141 or NR 142; and junior standing required.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1317,6 +1962,21 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>SP</t>
         </is>
       </c>
@@ -1334,10 +1994,25 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>NR 326 and completion of GE Area A3 with grades of C- or better.</t>
+          <t>NR 326 and completion of GE Area A3 with grades of C- or better.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t>F, SP</t>
         </is>
@@ -1361,6 +2036,21 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -1378,10 +2068,25 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>NR 326, NR 365.</t>
+          <t>NR 326, NR 365.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1400,10 +2105,25 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>one of the following: BIO 263, NR 305, or NR 306.</t>
+          <t>one of the BIO 263, NR 305, or NR 306.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1422,10 +2142,25 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>LA/NR 218 or GEOG 318.</t>
+          <t>LA/NR 218 or GEOG 318.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1444,10 +2179,25 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>NR 320; or graduate standing.</t>
+          <t>NR 320; or graduate standing.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1466,12 +2216,27 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>BOT 121 or BIO 162; CHEM 127; and SS 120 or SS 130. Recommended: one of the following: BIO 327, BOT 313, BOT 326, MSCI 300, NR 305, or NR 306.</t>
+          <t>BOT 121 or BIO 162; CHEM 127; and SS 120 or SS 130.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>one of the BIO 327, BOT 313, BOT 326, MSCI 300, NR 305, or NR 306.</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W </t>
         </is>
       </c>
     </row>
@@ -1493,6 +2258,21 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>SP</t>
         </is>
       </c>
@@ -1510,10 +2290,25 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>NR 416.</t>
+          <t>NR 416.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1537,6 +2332,21 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1554,12 +2364,27 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>NR 326. Recommended: NR 335.</t>
+          <t>NR 326.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NR 335.</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SP </t>
         </is>
       </c>
     </row>
@@ -1576,12 +2401,27 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>one of the following: BIO 263, NR 305, NR 306, or SS 321. Recommended: MATH 161.</t>
+          <t>one of the BIO 263, NR 305, NR 306, or SS 321.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>MATH 161.</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F </t>
         </is>
       </c>
     </row>
@@ -1598,10 +2438,25 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>NR 340.</t>
+          <t>NR 340.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1620,10 +2475,25 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>NR 326 and NR 416.</t>
+          <t>NR 326 and NR 416.</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1647,6 +2517,21 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1669,6 +2554,21 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1691,6 +2591,21 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -1708,12 +2623,27 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Completion of GE Area B1 with a grade of C- or better in at least one of the courses; completion of GE Areas B2, B3, and B4; and junior standing. Concurrent: NR 475.</t>
+          <t>Completion of GE Area B1 with a grade of C- or better in at least one of the courses; completion of GE Areas B2, B3, and B4; and junior standing.</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>SU</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>NR 475.</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SU </t>
         </is>
       </c>
     </row>
@@ -1730,12 +2660,27 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Completion of GE Area B1 with a grade of C- or better in at least one of the courses; completion of GE Areas B2, B3, and B4; and junior standing. Concurrent: NR 474.</t>
+          <t>Completion of GE Area B1 with a grade of C- or better in at least one of the courses; completion of GE Areas B2, B3, and B4; and junior standing.</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>SU</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>NR 474.</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SU </t>
         </is>
       </c>
     </row>
@@ -1752,10 +2697,25 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Completion of GE Area A with grades of C- or better; and ERSC 363 or NR 306 or NR 326.</t>
+          <t>Completion of GE Area A with grades of C- or better; and ERSC 363 or NR 306 or NR 326.</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
         <is>
           <t>F,W,SP,SU</t>
         </is>
@@ -1774,10 +2734,25 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Completion of GE Area A with grades of C- or better; and ERSC 363 or NR 306 or NR 326.</t>
+          <t>Completion of GE Area A with grades of C- or better; and ERSC 363 or NR 306 or NR 326.</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1796,10 +2771,25 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Completion of GE Area A with grades of C- or better; and ERSC 363 or NR 306 or NR 326.</t>
+          <t>Completion of GE Area A with grades of C- or better; and ERSC 363 or NR 306 or NR 326.</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1818,10 +2808,25 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Completion of GE Area A with grades of C- or better; ERSC 363 or NR 306 or NR 326; and consent of instructor.</t>
+          <t>Completion of GE Area A with grades of C- or better; ERSC 363 or NR 306 or NR 326; and consent of instructor.</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
         <is>
           <t>F,W,SP,SU</t>
         </is>
@@ -1845,6 +2850,21 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -1867,6 +2887,21 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -1889,6 +2924,21 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1911,6 +2961,21 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1933,6 +2998,21 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1950,12 +3030,27 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Consent of instructor. Recommended: NR 420.</t>
+          <t>Consent of instructor.</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>NR 420.</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TBD </t>
         </is>
       </c>
     </row>
